--- a/template_examples/tumor_tissue_rna_template.xlsx
+++ b/template_examples/tumor_tissue_rna_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB02D71-9145-B544-978B-C75F278032D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF1CC0-0ECC-9A46-992B-5372D83A5D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="17580" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8620" yWindow="26600" windowWidth="17580" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="328">
   <si>
     <t>LEGEND</t>
   </si>
@@ -2120,9 +2120,6 @@
     <t>Filled by CIMAC Lab</t>
   </si>
   <si>
-    <t>TTTPP501</t>
-  </si>
-  <si>
     <t>TRIALGROUP 1</t>
   </si>
   <si>
@@ -2138,9 +2135,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>TTTPP502</t>
-  </si>
-  <si>
     <t>TRIALGROUP 2</t>
   </si>
   <si>
@@ -2153,9 +2147,6 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>TTTPP503</t>
-  </si>
-  <si>
     <t>TRIALGROUP 3</t>
   </si>
   <si>
@@ -2165,9 +2156,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>TTTPP601</t>
-  </si>
-  <si>
     <t>TRIALGROUP 4</t>
   </si>
   <si>
@@ -2177,9 +2165,6 @@
     <t>A4</t>
   </si>
   <si>
-    <t>TTTPP602</t>
-  </si>
-  <si>
     <t>TRIALGROUP 5</t>
   </si>
   <si>
@@ -2189,9 +2174,6 @@
     <t>A5</t>
   </si>
   <si>
-    <t>TTTPP603</t>
-  </si>
-  <si>
     <t>TRIALGROUP 6</t>
   </si>
   <si>
@@ -2232,6 +2214,12 @@
   </si>
   <si>
     <t>test_prism_trial_tumor_tissue_RNA</t>
+  </si>
+  <si>
+    <t>TTTPP5</t>
+  </si>
+  <si>
+    <t>TTTPP6</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +2685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2724,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2735,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2790,7 +2778,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2801,7 +2789,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2856,7 +2844,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2867,7 +2855,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -3935,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE202"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4093,22 +4081,22 @@
         <v>201</v>
       </c>
       <c r="E3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" t="s">
         <v>294</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>295</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>296</v>
-      </c>
-      <c r="H3" t="s">
-        <v>297</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K3" t="s">
         <v>227</v>
@@ -4171,7 +4159,7 @@
         <v>137</v>
       </c>
       <c r="AE3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -4185,25 +4173,25 @@
         <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" t="s">
         <v>300</v>
-      </c>
-      <c r="F4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H4" t="s">
-        <v>302</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K4" t="s">
         <v>227</v>
@@ -4266,7 +4254,7 @@
         <v>137</v>
       </c>
       <c r="AE4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -4283,22 +4271,22 @@
         <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K5" t="s">
         <v>227</v>
@@ -4375,22 +4363,22 @@
         <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K6" t="s">
         <v>227</v>
@@ -4464,25 +4452,25 @@
         <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K7" t="s">
         <v>227</v>
@@ -4559,22 +4547,22 @@
         <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K8" t="s">
         <v>227</v>

--- a/template_examples/tumor_tissue_rna_template.xlsx
+++ b/template_examples/tumor_tissue_rna_template.xlsx
@@ -1017,7 +1017,7 @@
     <row r="1" ht="16" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="2" ht="17" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
     <row r="3" ht="17" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="4" ht="17" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
     <row r="5" ht="17" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="6" ht="17" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="7" ht="17" customHeight="1" thickBot="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1130,7 +1130,7 @@
     <row r="8" ht="17" customHeight="1" thickBot="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="9" ht="17" customHeight="1" thickBot="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="10" ht="17" customHeight="1" thickBot="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="11" ht="17" customHeight="1" thickBot="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="12" ht="17" customHeight="1" thickBot="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1211,7 +1211,7 @@
     <row r="13" ht="33" customHeight="1" thickBot="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="14" ht="17" customHeight="1" thickBot="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="15" ht="17" customHeight="1" thickBot="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1263,1414 +1263,1414 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -2759,7 +2759,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2916,7 +2916,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3057,7 +3057,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3198,7 +3198,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3334,7 +3334,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3470,7 +3470,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3606,7 +3606,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3742,1358 +3742,1358 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/tumor_tissue_rna_template.xlsx
+++ b/template_examples/tumor_tissue_rna_template.xlsx
@@ -1010,7 +1010,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -1259,7 +1259,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -2702,7 +2701,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="8.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="30.6640625" customWidth="1" min="3" max="101"/>
   </cols>
@@ -5114,7 +5113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="B1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5122,6 +5121,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -6046,7 +6046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="B1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6054,6 +6054,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>

--- a/template_examples/tumor_tissue_rna_template.xlsx
+++ b/template_examples/tumor_tissue_rna_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" state="visible" r:id="rId2"/>
@@ -328,7 +328,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -659,12 +659,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="288">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
   <si>
-    <t xml:space="preserve">Shipping manifest for tissue dna extracted from tumor tissue samples</t>
+    <t xml:space="preserve">Biospecimen manifest for tumor tissue rna</t>
   </si>
   <si>
     <t xml:space="preserve">#preamble</t>
@@ -1123,7 +1123,7 @@
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
   </si>
   <si>
     <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
@@ -1378,6 +1378,9 @@
     <t xml:space="preserve">Bone Marrow Mononuclear Cell</t>
   </si>
   <si>
+    <t xml:space="preserve">Stool DNA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LN</t>
   </si>
   <si>
@@ -1426,85 +1429,91 @@
     <t xml:space="preserve">mIF</t>
   </si>
   <si>
+    <t xml:space="preserve">MSSM_MTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumbar Puncture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H&amp;E-Stained Fixed Tissue Slide Specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mIHC</t>
+  </si>
+  <si>
     <t xml:space="preserve">DFCI_Wu</t>
   </si>
   <si>
-    <t xml:space="preserve">Stool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumbar Puncture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H&amp;E-Stained Fixed Tissue Slide Specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mIHC</t>
+    <t xml:space="preserve">Cell Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspirate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCRseq</t>
   </si>
   <si>
     <t xml:space="preserve">DFCI_Hodi</t>
   </si>
   <si>
-    <t xml:space="preserve">Cell Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspirate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCRseq</t>
+    <t xml:space="preserve">White Blood Cell Apheresis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine-Needle Aspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissue Scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATACseq</t>
   </si>
   <si>
     <t xml:space="preserve">DFCI_Severgnini</t>
   </si>
   <si>
-    <t xml:space="preserve">White Blood Cell Apheresis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine-Needle Aspiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tissue Scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATACseq</t>
+    <t xml:space="preserve">FFPE Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctDNA</t>
   </si>
   <si>
     <t xml:space="preserve">DFCI_Livak</t>
   </si>
   <si>
-    <t xml:space="preserve">FFPE Punch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctDNA</t>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbiome</t>
   </si>
   <si>
     <t xml:space="preserve">Broad_Cibulskis</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">Stanf_Maecker</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">Stanf_Bendall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">NCH</t>
@@ -1751,8 +1760,8 @@
   </sheetPr>
   <dimension ref="A1:C2018"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B3:AE8 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11961,8 +11970,8 @@
   </sheetPr>
   <dimension ref="A1:AE2002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:AE8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22662,7 +22671,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R9:R2002" type="list">
-      <formula1>'Data Dictionary'!$M$2:$M$7</formula1>
+      <formula1>'Data Dictionary'!$M$2:$M$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T9:T2002" type="list">
@@ -22717,7 +22726,7 @@
   <dimension ref="B1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:AE8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23322,10 +23331,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:U18"/>
+  <dimension ref="B1:U19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:AE8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23669,7 +23678,7 @@
         <v>238</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>83</v>
@@ -23681,7 +23690,7 @@
         <v>98</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T6" s="0" t="s">
         <v>117</v>
@@ -23692,31 +23701,31 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>117</v>
@@ -23733,31 +23742,34 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>117</v>
@@ -23765,25 +23777,25 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>117</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>83</v>
@@ -23794,19 +23806,19 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>75</v>
@@ -23820,33 +23832,33 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>83</v>
@@ -23855,18 +23867,18 @@
         <v>83</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>117</v>
@@ -23880,10 +23892,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>279</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>117</v>
@@ -23891,18 +23906,18 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23910,7 +23925,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23918,7 +23933,12 @@
         <v>117</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
